--- a/Finflux Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -208,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,6 +255,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -310,10 +319,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -346,6 +354,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -411,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,9 +466,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,6 +518,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,7 +735,7 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>42036</v>
       </c>
     </row>
@@ -693,113 +749,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="18">
         <v>10000</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="19">
         <v>785.8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="19">
         <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="19">
         <v>668.41</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>101.92</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>566.49</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="19">
         <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="19">
         <v>100</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="19">
         <v>100</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="A5" s="19">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -837,611 +895,611 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6">
         <v>10000</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="3">
+      <c r="E3" s="10"/>
+      <c r="F3" s="2">
         <v>785.8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>101.92</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>100</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>987.72</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>987.72</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>802.9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>8411.2999999999993</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>84.82</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <v>887.72</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>793.81</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>7617.49</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>93.91</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>887.72</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>42125</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>812.59</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>6804.9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>75.13</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <v>887.72</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>42156</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>818.37</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>5986.53</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>69.349999999999994</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>887.72</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>828.67</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>5157.8599999999997</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>59.05</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>887.72</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>42217</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>835.15</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>4322.71</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>52.57</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>887.72</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>42248</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>843.66</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>3479.05</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>44.06</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>887.72</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>42278</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>853.41</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>2625.64</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>34.31</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>887.72</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>42309</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>860.96</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>1764.68</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>26.76</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>887.72</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>42339</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>870.31</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>894.37</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>17.41</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>887.72</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>894.37</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
         <v>903.49</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>903.49</v>
       </c>
     </row>
@@ -1460,216 +1518,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>214</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>42095</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>93.91</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>93.91</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>213</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42064</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>84.82</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>84.82</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>212</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>987.72</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>785.8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>101.92</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>209</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>42036</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>201.92</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>101.92</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>100</v>
       </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>205</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>42005</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>10000</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1701,54 +1759,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
@@ -1756,25 +1814,25 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" t="s">
@@ -1807,141 +1865,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>275</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>42036</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>276</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>277</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42036</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>278</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>42036</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,273 +2010,273 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>263</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>264</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>265</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>266</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>279</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42064</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>280</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42064</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>281</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42095</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>282</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42095</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>60</v>
       </c>
     </row>
